--- a/annales/2012/Annale-2012-sujet.xlsx
+++ b/annales/2012/Annale-2012-sujet.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26310"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26403"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{258B4798-F4CD-4887-B074-24BDEE68F7EA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B2DB2A03-8D36-441E-8AC3-6B226AE892E4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-30828" yWindow="-4368" windowWidth="30936" windowHeight="16776" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-30828" yWindow="-3024" windowWidth="30936" windowHeight="17496" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="consignes " sheetId="2" r:id="rId1"/>
@@ -707,7 +707,7 @@
   <sheetPr codeName="Feuil5"/>
   <dimension ref="C2"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -992,9 +992,7 @@
   <sheetPr codeName="Feuil3"/>
   <dimension ref="A1:E47"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="A41" sqref="A41:D47"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
@@ -1473,9 +1471,7 @@
   <sheetPr codeName="Feuil4"/>
   <dimension ref="C6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -1498,9 +1494,7 @@
   <sheetPr codeName="Feuil2"/>
   <dimension ref="A1:D5"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="205" zoomScaleNormal="205" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
-    </sheetView>
+    <sheetView zoomScale="205" zoomScaleNormal="205" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
